--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\smt 7\adp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A42B475B-026A-4A8E-AB1E-959734B6AE1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E84E72E-DC7D-4C09-87A2-9076AEB119F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC3B7E9D-01E3-44DE-AB47-E6937F9BE918}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="523">
   <si>
     <t>Kabupaten/Kota</t>
   </si>
@@ -1630,9 +1630,6 @@
   </si>
   <si>
     <t>Mamberamo Raya</t>
-  </si>
-  <si>
-    <t>43. 19</t>
   </si>
   <si>
     <t>Kota Jayapura</t>
@@ -2088,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3538F8-75A3-476E-8BD2-8CF626B4EB3F}">
   <dimension ref="A1:H515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A488" zoomScale="77" workbookViewId="0">
-      <selection activeCell="F506" sqref="F506"/>
+    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="77" workbookViewId="0">
+      <selection activeCell="G511" sqref="G511"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15458,8 +15455,8 @@
       <c r="E514" s="6">
         <v>30.29</v>
       </c>
-      <c r="F514" s="6" t="s">
-        <v>522</v>
+      <c r="F514" s="6">
+        <v>43.19</v>
       </c>
       <c r="G514" s="6">
         <v>55.18</v>
@@ -15470,7 +15467,7 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B515" s="6">
         <v>81.67</v>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\smt 7\adp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E84E72E-DC7D-4C09-87A2-9076AEB119F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EE1F1B-99C4-46BB-A7E4-7522BDB7AA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC3B7E9D-01E3-44DE-AB47-E6937F9BE918}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="522">
   <si>
     <t>Kabupaten/Kota</t>
   </si>
@@ -148,9 +148,6 @@
   </si>
   <si>
     <t>Labuhan Batu</t>
-  </si>
-  <si>
-    <t>9,5</t>
   </si>
   <si>
     <t>Asahan</t>
@@ -1754,7 +1751,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1767,6 +1764,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3538F8-75A3-476E-8BD2-8CF626B4EB3F}">
   <dimension ref="A1:H515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" zoomScale="77" workbookViewId="0">
-      <selection activeCell="G511" sqref="G511"/>
+    <sheetView tabSelected="1" topLeftCell="A503" zoomScale="92" workbookViewId="0">
+      <selection activeCell="C516" sqref="C516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2888,8 +2888,8 @@
       <c r="B31" s="6">
         <v>75.2</v>
       </c>
-      <c r="C31" s="6" t="s">
-        <v>38</v>
+      <c r="C31" s="8">
+        <v>9.5</v>
       </c>
       <c r="D31" s="6">
         <v>27924.86</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="6">
         <v>74.17</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="6">
         <v>75.88</v>
@@ -2961,7 +2961,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="6">
         <v>75.88</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="6">
         <v>77.489999999999995</v>
@@ -3013,7 +3013,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B36" s="6">
         <v>77.56</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="6">
         <v>74.849999999999994</v>
@@ -3065,7 +3065,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="6">
         <v>65.87</v>
@@ -3091,7 +3091,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B39" s="6">
         <v>73.33</v>
@@ -3117,7 +3117,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B40" s="6">
         <v>73.09</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="6">
         <v>73.77</v>
@@ -3169,7 +3169,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="6">
         <v>74.150000000000006</v>
@@ -3195,7 +3195,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="6">
         <v>73.14</v>
@@ -3221,7 +3221,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B44" s="6">
         <v>74.16</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B45" s="6">
         <v>73.099999999999994</v>
@@ -3273,7 +3273,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B46" s="6">
         <v>75.11</v>
@@ -3299,7 +3299,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B47" s="6">
         <v>76.2</v>
@@ -3325,7 +3325,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B48" s="6">
         <v>66.42</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B49" s="6">
         <v>65.66</v>
@@ -3377,7 +3377,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B50" s="6">
         <v>77.52</v>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B51" s="6">
         <v>75.95</v>
@@ -3429,7 +3429,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B52" s="6">
         <v>81.17</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B53" s="6">
         <v>78.680000000000007</v>
@@ -3481,7 +3481,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B54" s="6">
         <v>83.23</v>
@@ -3507,7 +3507,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B55" s="6">
         <v>78.67</v>
@@ -3533,7 +3533,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B56" s="6">
         <v>78.61</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B57" s="6">
         <v>72.3</v>
@@ -3585,7 +3585,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B58" s="6">
         <v>66.67</v>
@@ -3611,7 +3611,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B59" s="6">
         <v>72.87</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B60" s="6">
         <v>72.290000000000006</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B61" s="6">
         <v>72.88</v>
@@ -3689,7 +3689,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B62" s="6">
         <v>76.489999999999995</v>
@@ -3715,7 +3715,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B63" s="6">
         <v>74.900000000000006</v>
@@ -3741,7 +3741,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B64" s="6">
         <v>75.08</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B65" s="6">
         <v>72.510000000000005</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B66" s="6">
         <v>70.61</v>
@@ -3819,7 +3819,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B67" s="6">
         <v>73.17</v>
@@ -3845,7 +3845,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B68" s="6">
         <v>74.819999999999993</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B69" s="6">
         <v>72.78</v>
@@ -3897,7 +3897,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B70" s="6">
         <v>84.38</v>
@@ -3923,7 +3923,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B71" s="6">
         <v>80.06</v>
@@ -3949,7 +3949,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B72" s="6">
         <v>76.680000000000007</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B73" s="6">
         <v>80.599999999999994</v>
@@ -4001,7 +4001,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B74" s="6">
         <v>82.61</v>
@@ -4027,7 +4027,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B75" s="6">
         <v>80.760000000000005</v>
@@ -4053,7 +4053,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B76" s="6">
         <v>80.489999999999995</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B77" s="6">
         <v>74</v>
@@ -4105,7 +4105,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B78" s="6">
         <v>72.75</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B79" s="6">
         <v>70.069999999999993</v>
@@ -4157,7 +4157,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B80" s="6">
         <v>75.25</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B81" s="6">
         <v>76.52</v>
@@ -4209,7 +4209,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B82" s="6">
         <v>76.290000000000006</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B83" s="6">
         <v>73.069999999999993</v>
@@ -4261,7 +4261,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84" s="6">
         <v>76.37</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B85" s="6">
         <v>72.459999999999994</v>
@@ -4313,7 +4313,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B86" s="6">
         <v>69.64</v>
@@ -4339,7 +4339,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B87" s="6">
         <v>84.26</v>
@@ -4365,7 +4365,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B88" s="6">
         <v>77.03</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B89" s="6">
         <v>74.33</v>
@@ -4417,7 +4417,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" s="6">
         <v>72.650000000000006</v>
@@ -4443,7 +4443,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B91" s="6">
         <v>73.760000000000005</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B92" s="6">
         <v>73.12</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B93" s="6">
         <v>73.11</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B94" s="6">
         <v>70.77</v>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B95" s="6">
         <v>72.010000000000005</v>
@@ -4573,7 +4573,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B96" s="6">
         <v>72.67</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B97" s="6">
         <v>74.44</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B98" s="6">
         <v>81.77</v>
@@ -4651,7 +4651,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B99" s="6">
         <v>77.930000000000007</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B100" s="6">
         <v>73.7</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B101" s="6">
         <v>71.48</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" s="6">
         <v>73.099999999999994</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B103" s="6">
         <v>72.83</v>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B104" s="6">
         <v>71.209999999999994</v>
@@ -4807,7 +4807,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B105" s="6">
         <v>72.27</v>
@@ -4833,7 +4833,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B106" s="6">
         <v>71.55</v>
@@ -4859,7 +4859,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B107" s="6">
         <v>70</v>
@@ -4885,7 +4885,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B108" s="6">
         <v>73.64</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B109" s="6">
         <v>72.67</v>
@@ -4937,7 +4937,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B110" s="6">
         <v>69.63</v>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B111" s="6">
         <v>69.63</v>
@@ -4989,7 +4989,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B112" s="6">
         <v>70.45</v>
@@ -5015,7 +5015,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B113" s="6">
         <v>82.29</v>
@@ -5041,7 +5041,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B114" s="6">
         <v>78.680000000000007</v>
@@ -5067,7 +5067,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B115" s="6">
         <v>74</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B116" s="6">
         <v>78.98</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B117" s="6">
         <v>74.53</v>
@@ -5145,7 +5145,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B118" s="6">
         <v>75.040000000000006</v>
@@ -5171,7 +5171,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B119" s="6">
         <v>73.099999999999994</v>
@@ -5197,7 +5197,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B120" s="6">
         <v>71.53</v>
@@ -5223,7 +5223,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B121" s="6">
         <v>70.98</v>
@@ -5249,7 +5249,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B122" s="6">
         <v>73.650000000000006</v>
@@ -5275,7 +5275,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B123" s="6">
         <v>73.540000000000006</v>
@@ -5301,7 +5301,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B124" s="6">
         <v>72.05</v>
@@ -5327,7 +5327,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B125" s="6">
         <v>71.67</v>
@@ -5353,7 +5353,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B126" s="6">
         <v>83.95</v>
@@ -5379,7 +5379,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B127" s="6">
         <v>72.41</v>
@@ -5405,7 +5405,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B128" s="6">
         <v>70.540000000000006</v>
@@ -5431,7 +5431,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B129" s="6">
         <v>72.150000000000006</v>
@@ -5457,7 +5457,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B130" s="6">
         <v>73.05</v>
@@ -5483,7 +5483,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B131" s="6">
         <v>74.16</v>
@@ -5509,7 +5509,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B132" s="6">
         <v>71.42</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B133" s="6">
         <v>71.17</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B134" s="6">
         <v>72.239999999999995</v>
@@ -5587,7 +5587,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B135" s="6">
         <v>70.239999999999995</v>
@@ -5613,7 +5613,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B136" s="6">
         <v>73.84</v>
@@ -5639,7 +5639,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B137" s="6">
         <v>68.59</v>
@@ -5665,7 +5665,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B138" s="6">
         <v>70.040000000000006</v>
@@ -5691,7 +5691,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B139" s="6">
         <v>71.040000000000006</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B140" s="6">
         <v>80.459999999999994</v>
@@ -5743,7 +5743,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B141" s="6">
         <v>80.41</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B142" s="6">
         <v>74.66</v>
@@ -5795,7 +5795,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B143" s="6">
         <v>74.959999999999994</v>
@@ -5821,7 +5821,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B144" s="6">
         <v>71.36</v>
@@ -5847,7 +5847,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B145" s="6">
         <v>72.540000000000006</v>
@@ -5873,7 +5873,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B146" s="6">
         <v>70.010000000000005</v>
@@ -5899,7 +5899,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B147" s="6">
         <v>73.62</v>
@@ -5925,7 +5925,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B148" s="6">
         <v>80.900000000000006</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B149" s="6">
         <v>75.489999999999995</v>
@@ -5977,7 +5977,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B150" s="6">
         <v>77.959999999999994</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B151" s="6">
         <v>78.599999999999994</v>
@@ -6029,7 +6029,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B152" s="6">
         <v>73.05</v>
@@ -6055,7 +6055,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B153" s="6">
         <v>73.47</v>
@@ -6081,7 +6081,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B154" s="6">
         <v>83.32</v>
@@ -6107,7 +6107,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B155" s="6">
         <v>81.58</v>
@@ -6133,7 +6133,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B156" s="6">
         <v>76.69</v>
@@ -6159,7 +6159,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B157" s="6">
         <v>87.57</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B158" s="6">
         <v>84.76</v>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B159" s="6">
         <v>83.75</v>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B160" s="6">
         <v>84.4</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B161" s="6">
         <v>82.13</v>
@@ -6289,7 +6289,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B162" s="6">
         <v>73.63</v>
@@ -6315,7 +6315,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B163" s="6">
         <v>70.180000000000007</v>
@@ -6341,7 +6341,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B164" s="6">
         <v>68.89</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B165" s="6">
         <v>74.59</v>
@@ -6393,7 +6393,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B166" s="6">
         <v>69.91</v>
@@ -6419,7 +6419,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B167" s="6">
         <v>69.98</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B168" s="6">
         <v>73.64</v>
@@ -6471,7 +6471,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B169" s="6">
         <v>71.56</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B170" s="6">
         <v>72.3</v>
@@ -6523,7 +6523,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B171" s="6">
         <v>71.37</v>
@@ -6549,7 +6549,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B172" s="6">
         <v>74.569999999999993</v>
@@ -6575,7 +6575,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B173" s="6">
         <v>70.72</v>
@@ -6601,7 +6601,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B174" s="6">
         <v>72.05</v>
@@ -6627,7 +6627,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B175" s="6">
         <v>73.989999999999995</v>
@@ -6653,7 +6653,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B176" s="6">
         <v>73.819999999999993</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B177" s="6">
         <v>76.8</v>
@@ -6705,7 +6705,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B178" s="6">
         <v>70.77</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B179" s="6">
         <v>71.03</v>
@@ -6757,7 +6757,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B180" s="6">
         <v>79.03</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B181" s="6">
         <v>77.69</v>
@@ -6809,7 +6809,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B182" s="6">
         <v>83.75</v>
@@ -6835,7 +6835,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B183" s="6">
         <v>78.09</v>
@@ -6861,7 +6861,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B184" s="6">
         <v>83.55</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B185" s="6">
         <v>83.05</v>
@@ -6913,7 +6913,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B186" s="6">
         <v>80.3</v>
@@ -6939,7 +6939,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B187" s="6">
         <v>76.03</v>
@@ -6965,7 +6965,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B188" s="6">
         <v>75.010000000000005</v>
@@ -6991,7 +6991,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B189" s="6">
         <v>72.55</v>
@@ -7017,7 +7017,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B190" s="6">
         <v>74.52</v>
@@ -7043,7 +7043,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B191" s="6">
         <v>70.97</v>
@@ -7069,7 +7069,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B192" s="6">
         <v>69.62</v>
@@ -7095,7 +7095,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B193" s="6">
         <v>72.48</v>
@@ -7121,7 +7121,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B194" s="6">
         <v>75.16</v>
@@ -7147,7 +7147,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B195" s="6">
         <v>70.63</v>
@@ -7173,7 +7173,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B196" s="6">
         <v>72.099999999999994</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B197" s="6">
         <v>75.959999999999994</v>
@@ -7225,7 +7225,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B198" s="6">
         <v>78.16</v>
@@ -7251,7 +7251,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B199" s="6">
         <v>79.3</v>
@@ -7277,7 +7277,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B200" s="6">
         <v>72.540000000000006</v>
@@ -7303,7 +7303,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B201" s="6">
         <v>78.11</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B202" s="6">
         <v>75.53</v>
@@ -7355,7 +7355,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B203" s="6">
         <v>72.02</v>
@@ -7381,7 +7381,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B204" s="6">
         <v>71.42</v>
@@ -7407,7 +7407,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B205" s="6">
         <v>72.53</v>
@@ -7433,7 +7433,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B206" s="6">
         <v>74.099999999999994</v>
@@ -7459,7 +7459,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B207" s="6">
         <v>77.209999999999994</v>
@@ -7485,7 +7485,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B208" s="6">
         <v>74.319999999999993</v>
@@ -7511,7 +7511,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B209" s="6">
         <v>74.569999999999993</v>
@@ -7537,7 +7537,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B210" s="6">
         <v>75.67</v>
@@ -7563,7 +7563,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B211" s="6">
         <v>71.86</v>
@@ -7589,7 +7589,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B212" s="6">
         <v>74.34</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B213" s="6">
         <v>70.73</v>
@@ -7641,7 +7641,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B214" s="6">
         <v>71.95</v>
@@ -7667,7 +7667,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B215" s="6">
         <v>68.650000000000006</v>
@@ -7693,7 +7693,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B216" s="6">
         <v>71.7</v>
@@ -7719,7 +7719,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B217" s="6">
         <v>70.180000000000007</v>
@@ -7745,7 +7745,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B218" s="6">
         <v>82.15</v>
@@ -7771,7 +7771,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B219" s="6">
         <v>84.41</v>
@@ -7797,7 +7797,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B220" s="6">
         <v>85.72</v>
@@ -7823,7 +7823,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B221" s="6">
         <v>85.24</v>
@@ -7849,7 +7849,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B222" s="6">
         <v>77.209999999999994</v>
@@ -7875,7 +7875,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B223" s="6">
         <v>77.5</v>
@@ -7901,7 +7901,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B224" s="6">
         <v>76.180000000000007</v>
@@ -7927,7 +7927,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B225" s="6">
         <v>82.05</v>
@@ -7953,7 +7953,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B226" s="6">
         <v>72.14</v>
@@ -7979,7 +7979,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B227" s="6">
         <v>85.71</v>
@@ -8005,7 +8005,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B228" s="6">
         <v>89.1</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B229" s="6">
         <v>71.489999999999995</v>
@@ -8057,7 +8057,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B230" s="6">
         <v>73.7</v>
@@ -8083,7 +8083,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B231" s="6">
         <v>72.47</v>
@@ -8109,7 +8109,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B232" s="6">
         <v>75.13</v>
@@ -8135,7 +8135,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B233" s="6">
         <v>73.44</v>
@@ -8161,7 +8161,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B234" s="6">
         <v>75.180000000000007</v>
@@ -8187,7 +8187,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B235" s="6">
         <v>73.53</v>
@@ -8213,7 +8213,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B236" s="6">
         <v>70.31</v>
@@ -8239,7 +8239,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B237" s="6">
         <v>70.930000000000007</v>
@@ -8265,7 +8265,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B238" s="6">
         <v>74.3</v>
@@ -8291,7 +8291,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B239" s="6">
         <v>71.22</v>
@@ -8317,7 +8317,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B240" s="6">
         <v>71.22</v>
@@ -8343,7 +8343,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B241" s="6">
         <v>70.849999999999994</v>
@@ -8369,7 +8369,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B242" s="6">
         <v>72.36</v>
@@ -8395,7 +8395,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B243" s="6">
         <v>82.67</v>
@@ -8421,7 +8421,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B244" s="6">
         <v>76.69</v>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B245" s="6">
         <v>75.67</v>
@@ -8473,7 +8473,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B246" s="6">
         <v>75.239999999999995</v>
@@ -8499,7 +8499,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B247" s="6">
         <v>74.81</v>
@@ -8525,7 +8525,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B248" s="6">
         <v>76.77</v>
@@ -8551,7 +8551,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B249" s="6">
         <v>73.91</v>
@@ -8577,7 +8577,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B250" s="6">
         <v>72.75</v>
@@ -8603,7 +8603,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B251" s="6">
         <v>72.31</v>
@@ -8629,7 +8629,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B252" s="6">
         <v>75.900000000000006</v>
@@ -8655,7 +8655,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B253" s="6">
         <v>78.930000000000007</v>
@@ -8681,7 +8681,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B254" s="6">
         <v>67.33</v>
@@ -8707,7 +8707,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B255" s="6">
         <v>66.72</v>
@@ -8733,7 +8733,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B256" s="6">
         <v>70.849999999999994</v>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B257" s="6">
         <v>69.78</v>
@@ -8785,7 +8785,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B258" s="6">
         <v>81.88</v>
@@ -8811,7 +8811,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B259" s="6">
         <v>81.44</v>
@@ -8837,7 +8837,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B260" s="6">
         <v>84.68</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B261" s="6">
         <v>77.790000000000006</v>
@@ -8889,7 +8889,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B262" s="6">
         <v>78.900000000000006</v>
@@ -8915,7 +8915,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B263" s="6">
         <v>81.760000000000005</v>
@@ -8941,7 +8941,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B264" s="6">
         <v>84.51</v>
@@ -8967,7 +8967,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B265" s="6">
         <v>84.69</v>
@@ -8993,7 +8993,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B266" s="6">
         <v>79.69</v>
@@ -9019,7 +9019,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B267" s="6">
         <v>70.88</v>
@@ -9045,7 +9045,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B268" s="6">
         <v>68.33</v>
@@ -9071,7 +9071,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B269" s="6">
         <v>76.19</v>
@@ -9097,7 +9097,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B270" s="6">
         <v>73.28</v>
@@ -9123,7 +9123,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B271" s="6">
         <v>81.53</v>
@@ -9149,7 +9149,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B272" s="6">
         <v>78.83</v>
@@ -9175,7 +9175,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B273" s="6">
         <v>76.900000000000006</v>
@@ -9201,7 +9201,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B274" s="6">
         <v>84.16</v>
@@ -9227,7 +9227,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B275" s="6">
         <v>75.319999999999993</v>
@@ -9253,7 +9253,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B276" s="6">
         <v>78.83</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B277" s="6">
         <v>83.73</v>
@@ -9305,7 +9305,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B278" s="6">
         <v>80.23</v>
@@ -9331,7 +9331,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B279" s="6">
         <v>75.150000000000006</v>
@@ -9357,7 +9357,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B280" s="6">
         <v>72.510000000000005</v>
@@ -9383,7 +9383,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B281" s="6">
         <v>70.91</v>
@@ -9409,7 +9409,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B282" s="6">
         <v>75.349999999999994</v>
@@ -9435,7 +9435,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B283" s="6">
         <v>85.11</v>
@@ -9461,7 +9461,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B284" s="6">
         <v>72.7</v>
@@ -9487,7 +9487,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B285" s="6">
         <v>71.19</v>
@@ -9513,7 +9513,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B286" s="6">
         <v>71.48</v>
@@ -9539,7 +9539,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B287" s="6">
         <v>72.36</v>
@@ -9565,7 +9565,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B288" s="6">
         <v>72.59</v>
@@ -9591,7 +9591,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B289" s="6">
         <v>70.989999999999995</v>
@@ -9617,7 +9617,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B290" s="6">
         <v>75.52</v>
@@ -9643,7 +9643,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B291" s="6">
         <v>68.64</v>
@@ -9669,7 +9669,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B292" s="6">
         <v>81.64</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B293" s="6">
         <v>78.91</v>
@@ -9721,7 +9721,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B294" s="6">
         <v>67.7</v>
@@ -9747,7 +9747,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B295" s="6">
         <v>70.28</v>
@@ -9773,7 +9773,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B296" s="6">
         <v>68.260000000000005</v>
@@ -9799,7 +9799,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B297" s="6">
         <v>66.22</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B298" s="6">
         <v>67.27</v>
@@ -9851,7 +9851,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B299" s="6">
         <v>68.13</v>
@@ -9877,7 +9877,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B300" s="6">
         <v>67.7</v>
@@ -9903,7 +9903,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B301" s="6">
         <v>68.95</v>
@@ -9929,7 +9929,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B302" s="6">
         <v>69.790000000000006</v>
@@ -9955,7 +9955,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B303" s="6">
         <v>69.959999999999994</v>
@@ -9981,7 +9981,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B304" s="6">
         <v>72.239999999999995</v>
@@ -10007,7 +10007,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B305" s="6">
         <v>72.040000000000006</v>
@@ -10033,7 +10033,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B306" s="6">
         <v>69.349999999999994</v>
@@ -10059,7 +10059,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B307" s="6">
         <v>66.400000000000006</v>
@@ -10085,7 +10085,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B308" s="6">
         <v>68.680000000000007</v>
@@ -10111,7 +10111,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B309" s="6">
         <v>64.459999999999994</v>
@@ -10137,7 +10137,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B310" s="6">
         <v>64.27</v>
@@ -10163,7 +10163,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B311" s="6">
         <v>69.7</v>
@@ -10189,7 +10189,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B312" s="6">
         <v>66.03</v>
@@ -10215,7 +10215,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B313" s="6">
         <v>62.06</v>
@@ -10241,7 +10241,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B314" s="6">
         <v>65.13</v>
@@ -10267,7 +10267,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B315" s="6">
         <v>83.21</v>
@@ -10293,7 +10293,7 @@
     </row>
     <row r="316" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B316" s="6">
         <v>71.2</v>
@@ -10319,7 +10319,7 @@
     </row>
     <row r="317" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B317" s="6">
         <v>70.3</v>
@@ -10345,7 +10345,7 @@
     </row>
     <row r="318" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B318" s="6">
         <v>69.13</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="319" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B319" s="6">
         <v>69.63</v>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="320" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B320" s="6">
         <v>69.400000000000006</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="321" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B321" s="6">
         <v>70.34</v>
@@ -10449,7 +10449,7 @@
     </row>
     <row r="322" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B322" s="6">
         <v>70.13</v>
@@ -10475,7 +10475,7 @@
     </row>
     <row r="323" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B323" s="6">
         <v>68.77</v>
@@ -10501,7 +10501,7 @@
     </row>
     <row r="324" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B324" s="6">
         <v>67.739999999999995</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="325" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B325" s="6">
         <v>68.81</v>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="326" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B326" s="6">
         <v>67.05</v>
@@ -10579,7 +10579,7 @@
     </row>
     <row r="327" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B327" s="6">
         <v>71.14</v>
@@ -10605,7 +10605,7 @@
     </row>
     <row r="328" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B328" s="6">
         <v>82.22</v>
@@ -10631,7 +10631,7 @@
     </row>
     <row r="329" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B329" s="6">
         <v>74.680000000000007</v>
@@ -10657,7 +10657,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B330" s="6">
         <v>75.349999999999994</v>
@@ -10683,7 +10683,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B331" s="6">
         <v>74.47</v>
@@ -10709,7 +10709,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B332" s="6">
         <v>72.98</v>
@@ -10735,7 +10735,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B333" s="6">
         <v>74.760000000000005</v>
@@ -10761,7 +10761,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B334" s="6">
         <v>73.17</v>
@@ -10787,7 +10787,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B335" s="6">
         <v>70.83</v>
@@ -10813,7 +10813,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B336" s="6">
         <v>73.95</v>
@@ -10839,7 +10839,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B337" s="6">
         <v>70.66</v>
@@ -10865,7 +10865,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B338" s="6">
         <v>74.37</v>
@@ -10891,7 +10891,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B339" s="6">
         <v>72.36</v>
@@ -10917,7 +10917,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B340" s="6">
         <v>73.88</v>
@@ -10943,7 +10943,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B341" s="6">
         <v>74.81</v>
@@ -10969,7 +10969,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B342" s="6">
         <v>71.58</v>
@@ -10995,7 +10995,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B343" s="6">
         <v>82.53</v>
@@ -11021,7 +11021,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B344" s="6">
         <v>73.42</v>
@@ -11047,7 +11047,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B345" s="6">
         <v>72.42</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B346" s="6">
         <v>74.41</v>
@@ -11099,7 +11099,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B347" s="6">
         <v>71.400000000000006</v>
@@ -11125,7 +11125,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B348" s="6">
         <v>74.06</v>
@@ -11151,7 +11151,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B349" s="6">
         <v>73.95</v>
@@ -11177,7 +11177,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B350" s="6">
         <v>73.33</v>
@@ -11203,7 +11203,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B351" s="6">
         <v>71.739999999999995</v>
@@ -11229,7 +11229,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B352" s="6">
         <v>75.97</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B353" s="6">
         <v>74.5</v>
@@ -11281,7 +11281,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B354" s="6">
         <v>73.83</v>
@@ -11307,7 +11307,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B355" s="6">
         <v>80.53</v>
@@ -11333,7 +11333,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B356" s="6">
         <v>81.650000000000006</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B357" s="6">
         <v>75.13</v>
@@ -11385,7 +11385,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B358" s="6">
         <v>74.760000000000005</v>
@@ -11411,7 +11411,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B359" s="6">
         <v>76.569999999999993</v>
@@ -11437,7 +11437,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B360" s="6">
         <v>75.900000000000006</v>
@@ -11463,7 +11463,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B361" s="6">
         <v>77.17</v>
@@ -11489,7 +11489,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B362" s="6">
         <v>74.94</v>
@@ -11515,7 +11515,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B363" s="6">
         <v>70.790000000000006</v>
@@ -11541,7 +11541,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B364" s="6">
         <v>82.62</v>
@@ -11567,7 +11567,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B365" s="6">
         <v>83.11</v>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B366" s="6">
         <v>82.49</v>
@@ -11619,7 +11619,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B367" s="6">
         <v>74.72</v>
@@ -11645,7 +11645,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B368" s="6">
         <v>73.83</v>
@@ -11671,7 +11671,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B369" s="6">
         <v>70.95</v>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B370" s="6">
         <v>69.27</v>
@@ -11723,7 +11723,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B371" s="6">
         <v>78.03</v>
@@ -11749,7 +11749,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B372" s="6">
         <v>71.14</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B373" s="6">
         <v>79.260000000000005</v>
@@ -11801,7 +11801,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B374" s="6">
         <v>74.430000000000007</v>
@@ -11827,7 +11827,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B375" s="6">
         <v>72.83</v>
@@ -11853,7 +11853,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B376" s="6">
         <v>75.790000000000006</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B377" s="6">
         <v>77.05</v>
@@ -11905,7 +11905,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B378" s="6">
         <v>71.66</v>
@@ -11931,7 +11931,7 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B379" s="6">
         <v>71.55</v>
@@ -11957,7 +11957,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B380" s="6">
         <v>73.680000000000007</v>
@@ -11983,7 +11983,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B381" s="6">
         <v>69.92</v>
@@ -12009,7 +12009,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B382" s="6">
         <v>70.680000000000007</v>
@@ -12035,7 +12035,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B383" s="6">
         <v>81.86</v>
@@ -12061,7 +12061,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B384" s="6">
         <v>76.900000000000006</v>
@@ -12087,7 +12087,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B385" s="6">
         <v>80.06</v>
@@ -12113,7 +12113,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B386" s="6">
         <v>76.86</v>
@@ -12139,7 +12139,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B387" s="6">
         <v>67.650000000000006</v>
@@ -12165,7 +12165,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B388" s="6">
         <v>72.86</v>
@@ -12191,7 +12191,7 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B389" s="6">
         <v>74.36</v>
@@ -12217,7 +12217,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B390" s="6">
         <v>73.650000000000006</v>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B391" s="6">
         <v>68.709999999999994</v>
@@ -12269,7 +12269,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B392" s="6">
         <v>70.38</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B393" s="6">
         <v>70.89</v>
@@ -12321,7 +12321,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B394" s="6">
         <v>69.48</v>
@@ -12347,7 +12347,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B395" s="6">
         <v>69.040000000000006</v>
@@ -12373,7 +12373,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B396" s="6">
         <v>70.900000000000006</v>
@@ -12399,7 +12399,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B397" s="6">
         <v>69.650000000000006</v>
@@ -12425,7 +12425,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B398" s="6">
         <v>71.64</v>
@@ -12451,7 +12451,7 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B399" s="6">
         <v>84.12</v>
@@ -12477,7 +12477,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B400" s="6">
         <v>71.98</v>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B401" s="6">
         <v>74.430000000000007</v>
@@ -12529,7 +12529,7 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B402" s="6">
         <v>72.2</v>
@@ -12555,7 +12555,7 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B403" s="6">
         <v>69.45</v>
@@ -12581,7 +12581,7 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B404" s="6">
         <v>72.06</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B405" s="6">
         <v>73.709999999999994</v>
@@ -12633,7 +12633,7 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B406" s="6">
         <v>71.81</v>
@@ -12659,7 +12659,7 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B407" s="6">
         <v>74.040000000000006</v>
@@ -12685,7 +12685,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B408" s="6">
         <v>73.87</v>
@@ -12711,7 +12711,7 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B409" s="6">
         <v>74.510000000000005</v>
@@ -12737,7 +12737,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B410" s="6">
         <v>70.81</v>
@@ -12763,7 +12763,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B411" s="6">
         <v>72.760000000000005</v>
@@ -12789,7 +12789,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B412" s="6">
         <v>73.98</v>
@@ -12815,7 +12815,7 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B413" s="6">
         <v>74.81</v>
@@ -12841,7 +12841,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B414" s="6">
         <v>75.430000000000007</v>
@@ -12867,7 +12867,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B415" s="6">
         <v>75.83</v>
@@ -12893,7 +12893,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B416" s="6">
         <v>73.86</v>
@@ -12919,7 +12919,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B417" s="6">
         <v>71.94</v>
@@ -12945,7 +12945,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B418" s="6">
         <v>74.040000000000006</v>
@@ -12971,7 +12971,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B419" s="6">
         <v>76.44</v>
@@ -12997,7 +12997,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B420" s="6">
         <v>72.31</v>
@@ -13023,7 +13023,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B421" s="6">
         <v>85.23</v>
@@ -13049,7 +13049,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B422" s="6">
         <v>80.97</v>
@@ -13075,7 +13075,7 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B423" s="6">
         <v>81.25</v>
@@ -13101,7 +13101,7 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B424" s="6">
         <v>69.72</v>
@@ -13127,7 +13127,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B425" s="6">
         <v>71.5</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B426" s="6">
         <v>74.5</v>
@@ -13179,7 +13179,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B427" s="6">
         <v>76.2</v>
@@ -13205,7 +13205,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B428" s="6">
         <v>71.510000000000005</v>
@@ -13231,7 +13231,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B429" s="6">
         <v>68.849999999999994</v>
@@ -13257,7 +13257,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B430" s="6">
         <v>72.03</v>
@@ -13283,7 +13283,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B431" s="6">
         <v>71.75</v>
@@ -13309,7 +13309,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B432" s="6">
         <v>70.75</v>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B433" s="6">
         <v>72.709999999999994</v>
@@ -13361,7 +13361,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B434" s="6">
         <v>70.319999999999993</v>
@@ -13387,7 +13387,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B435" s="6">
         <v>68.77</v>
@@ -13413,7 +13413,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B436" s="6">
         <v>68.37</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B437" s="6">
         <v>67.58</v>
@@ -13465,7 +13465,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B438" s="6">
         <v>68.040000000000006</v>
@@ -13491,7 +13491,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B439" s="6">
         <v>85.97</v>
@@ -13517,7 +13517,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B440" s="6">
         <v>79.61</v>
@@ -13543,7 +13543,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B441" s="6">
         <v>69.34</v>
@@ -13569,7 +13569,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B442" s="6">
         <v>70.959999999999994</v>
@@ -13595,7 +13595,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B443" s="6">
         <v>70.19</v>
@@ -13621,7 +13621,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B444" s="6">
         <v>72.819999999999993</v>
@@ -13647,7 +13647,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B445" s="6">
         <v>68.83</v>
@@ -13673,7 +13673,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B446" s="6">
         <v>79.180000000000007</v>
@@ -13699,7 +13699,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B447" s="6">
         <v>73.25</v>
@@ -13725,7 +13725,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B448" s="6">
         <v>69.88</v>
@@ -13751,7 +13751,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B449" s="6">
         <v>68.680000000000007</v>
@@ -13777,7 +13777,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B450" s="6">
         <v>71.86</v>
@@ -13803,7 +13803,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B451" s="6">
         <v>71.040000000000006</v>
@@ -13829,7 +13829,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B452" s="6">
         <v>68.53</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B453" s="6">
         <v>67.69</v>
@@ -13881,7 +13881,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B454" s="6">
         <v>70.58</v>
@@ -13907,7 +13907,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B455" s="6">
         <v>75.099999999999994</v>
@@ -13933,7 +13933,7 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B456" s="6">
         <v>72.55</v>
@@ -13959,7 +13959,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B457" s="6">
         <v>69</v>
@@ -13985,7 +13985,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B458" s="6">
         <v>72.540000000000006</v>
@@ -14011,7 +14011,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B459" s="6">
         <v>70.28</v>
@@ -14037,7 +14037,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B460" s="6">
         <v>67.680000000000007</v>
@@ -14063,7 +14063,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B461" s="6">
         <v>68.540000000000006</v>
@@ -14089,7 +14089,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B462" s="6">
         <v>83.37</v>
@@ -14115,7 +14115,7 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B463" s="6">
         <v>72.48</v>
@@ -14141,7 +14141,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B464" s="6">
         <v>69.2</v>
@@ -14167,7 +14167,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B465" s="6">
         <v>70.94</v>
@@ -14193,7 +14193,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B466" s="6">
         <v>68.19</v>
@@ -14219,7 +14219,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B467" s="6">
         <v>68.430000000000007</v>
@@ -14245,7 +14245,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B468" s="6">
         <v>70.52</v>
@@ -14271,7 +14271,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B469" s="6">
         <v>70.349999999999994</v>
@@ -14297,7 +14297,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A470" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B470" s="6">
         <v>66.91</v>
@@ -14323,7 +14323,7 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A471" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B471" s="6">
         <v>64.88</v>
@@ -14349,7 +14349,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B472" s="6">
         <v>82.59</v>
@@ -14375,7 +14375,7 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B473" s="6">
         <v>74.010000000000005</v>
@@ -14401,7 +14401,7 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B474" s="6">
         <v>71.52</v>
@@ -14427,7 +14427,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B475" s="6">
         <v>69.2</v>
@@ -14453,7 +14453,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B476" s="6">
         <v>64.52</v>
@@ -14479,7 +14479,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B477" s="6">
         <v>69.790000000000006</v>
@@ -14505,7 +14505,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B478" s="6">
         <v>75.150000000000006</v>
@@ -14531,7 +14531,7 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B479" s="6">
         <v>62.45</v>
@@ -14557,7 +14557,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B480" s="6">
         <v>58.71</v>
@@ -14583,7 +14583,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B481" s="6">
         <v>66.599999999999994</v>
@@ -14609,7 +14609,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A482" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B482" s="6">
         <v>64.540000000000006</v>
@@ -14635,7 +14635,7 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A483" s="6" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B483" s="6">
         <v>69.69</v>
@@ -14661,7 +14661,7 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A484" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B484" s="6">
         <v>61.83</v>
@@ -14687,7 +14687,7 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A485" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B485" s="6">
         <v>58.31</v>
@@ -14713,7 +14713,7 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A486" s="6" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B486" s="6">
         <v>80.55</v>
@@ -14739,7 +14739,7 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A487" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B487" s="6">
         <v>74.53</v>
@@ -14765,7 +14765,7 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A488" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B488" s="6">
         <v>68.16</v>
@@ -14791,7 +14791,7 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A489" s="6" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B489" s="6">
         <v>61.66</v>
@@ -14817,7 +14817,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A490" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B490" s="6">
         <v>57.63</v>
@@ -14843,7 +14843,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A491" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B491" s="6">
         <v>36.299999999999997</v>
@@ -14869,7 +14869,7 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A492" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B492" s="6">
         <v>61.03</v>
@@ -14895,7 +14895,7 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A493" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B493" s="6">
         <v>51.59</v>
@@ -14921,7 +14921,7 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A494" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B494" s="6">
         <v>52.05</v>
@@ -14947,7 +14947,7 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A495" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B495" s="6">
         <v>50.72</v>
@@ -14973,7 +14973,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A496" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B496" s="6">
         <v>51.85</v>
@@ -14999,7 +14999,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A497" s="6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B497" s="6">
         <v>51.98</v>
@@ -15025,7 +15025,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A498" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B498" s="6">
         <v>49.36</v>
@@ -15051,7 +15051,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A499" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B499" s="6">
         <v>76.849999999999994</v>
@@ -15077,7 +15077,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A500" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B500" s="6">
         <v>57.68</v>
@@ -15103,7 +15103,7 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A501" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B501" s="6">
         <v>52.07</v>
@@ -15129,7 +15129,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A502" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B502" s="6">
         <v>71.77</v>
@@ -15155,7 +15155,7 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A503" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B503" s="6">
         <v>58.69</v>
@@ -15181,7 +15181,7 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A504" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B504" s="6">
         <v>50.71</v>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A505" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B505" s="6">
         <v>45.6</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A506" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B506" s="6">
         <v>51.78</v>
@@ -15259,7 +15259,7 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A507" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B507" s="6">
         <v>74.11</v>
@@ -15285,7 +15285,7 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A508" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B508" s="6">
         <v>69.650000000000006</v>
@@ -15311,7 +15311,7 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A509" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B509" s="6">
         <v>73.98</v>
@@ -15337,7 +15337,7 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A510" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B510" s="6">
         <v>66.72</v>
@@ -15363,7 +15363,7 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A511" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B511" s="6">
         <v>68.680000000000007</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A512" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B512" s="6">
         <v>66.92</v>
@@ -15415,7 +15415,7 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A513" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B513" s="6">
         <v>65.150000000000006</v>
@@ -15441,7 +15441,7 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A514" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B514" s="6">
         <v>55</v>
@@ -15467,7 +15467,7 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A515" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B515" s="6">
         <v>81.67</v>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\smt 7\adp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4EE1F1B-99C4-46BB-A7E4-7522BDB7AA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EEDAF3-16C4-46FF-8270-44D6F4F4CD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC3B7E9D-01E3-44DE-AB47-E6937F9BE918}"/>
   </bookViews>
@@ -2085,8 +2085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B3538F8-75A3-476E-8BD2-8CF626B4EB3F}">
   <dimension ref="A1:H515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A503" zoomScale="92" workbookViewId="0">
-      <selection activeCell="C516" sqref="C516"/>
+    <sheetView tabSelected="1" topLeftCell="A308" zoomScale="92" workbookViewId="0">
+      <selection activeCell="D323" sqref="D323"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10458,7 +10458,7 @@
         <v>7.65</v>
       </c>
       <c r="D322" s="6">
-        <v>11216504.1</v>
+        <v>11216.5041</v>
       </c>
       <c r="E322" s="6">
         <v>8.0299999999999994</v>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\smt 7\adp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EEDAF3-16C4-46FF-8270-44D6F4F4CD4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D99556-B475-4825-A651-959F146A648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC3B7E9D-01E3-44DE-AB47-E6937F9BE918}"/>
   </bookViews>
@@ -2086,7 +2086,7 @@
   <dimension ref="A1:H515"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A308" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D323" sqref="D323"/>
+      <selection activeCell="D322" sqref="D322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/project.xlsx
+++ b/project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kuliah\smt 7\adp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D99556-B475-4825-A651-959F146A648E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EBC0056-2B45-4DB3-A49B-EC6789437AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EC3B7E9D-01E3-44DE-AB47-E6937F9BE918}"/>
   </bookViews>
@@ -2086,7 +2086,7 @@
   <dimension ref="A1:H515"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A308" zoomScale="92" workbookViewId="0">
-      <selection activeCell="D322" sqref="D322"/>
+      <selection activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10458,7 +10458,7 @@
         <v>7.65</v>
       </c>
       <c r="D322" s="6">
-        <v>11216.5041</v>
+        <v>11216.5</v>
       </c>
       <c r="E322" s="6">
         <v>8.0299999999999994</v>
